--- a/data/other/Bricelj_Shumway_1998_Table4.xlsx
+++ b/data/other/Bricelj_Shumway_1998_Table4.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{495C8AAA-0AA4-BF4E-A484-EF88BFE0D7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B81D7C-2057-9641-AD35-572B49A8EEA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{4CDF84D5-B041-C64A-AA8B-954357A6507B}"/>
+    <workbookView xWindow="2320" yWindow="4780" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4CDF84D5-B041-C64A-AA8B-954357A6507B}"/>
   </bookViews>
   <sheets>
     <sheet name="Bricelj_Shumway_1998_Table4" sheetId="1" r:id="rId1"/>
+    <sheet name="Species" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="254">
   <si>
     <t>species</t>
   </si>
@@ -788,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -921,6 +922,13 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1265,8 +1273,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1644,11 +1653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79980405-44A1-2640-9F96-BD3334EAC47E}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
@@ -1658,27 +1667,27 @@
     <col min="6" max="6" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1838,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1878,7 +1887,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1975,7 +1984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2095,7 +2104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -2115,7 +2124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>115</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -2389,7 +2398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -2409,7 +2418,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>134</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2449,7 +2458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -2583,7 +2592,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -2603,7 +2612,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -2617,7 +2626,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -2637,7 +2646,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>153</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>153</v>
       </c>
@@ -2671,7 +2680,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -2756,7 +2765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>153</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>153</v>
       </c>
@@ -2796,7 +2805,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -2881,7 +2890,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>204</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>204</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -3015,7 +3024,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>204</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>223</v>
       </c>
@@ -3055,7 +3064,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>223</v>
       </c>
@@ -3135,7 +3144,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>223</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>223</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>223</v>
       </c>
@@ -3215,7 +3224,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -3227,6 +3236,134 @@
       </c>
       <c r="F82" t="s">
         <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{927D8CE0-3015-5D42-84A1-C52E8AC563CC}">
+  <dimension ref="A1:A22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
